--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\Biogaz_GB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\Biogaz_GB_AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A3074-D8D6-4E77-83A5-758DB748EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5258F66C-DB9A-41BC-AEA1-2CF5FD55F45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="151" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>CommName</t>
   </si>
@@ -47,18 +47,12 @@
     <t>IPI</t>
   </si>
   <si>
-    <t>AGR_DEM</t>
-  </si>
-  <si>
     <t>\I:</t>
   </si>
   <si>
     <t>PL</t>
   </si>
   <si>
-    <t>thousands of animals</t>
-  </si>
-  <si>
     <t>AGR_DEM_LIV_CAT_DAIRY</t>
   </si>
   <si>
@@ -126,16 +120,24 @@
   </si>
   <si>
     <t>Wprowadzenie topologii popytów i wartości popytów</t>
+  </si>
+  <si>
+    <t>kanimals</t>
+  </si>
+  <si>
+    <t>AGR_DEM_CROP_WHEAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -212,8 +214,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +280,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -269,15 +293,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,8 +450,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -454,50 +478,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="16" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="15" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="13" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
@@ -507,44 +540,41 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="16" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="5" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -555,24 +585,33 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="26">
+    <cellStyle name="Currency 2" xfId="17" xr:uid="{70D1AD71-AA42-4A2C-9630-81F8405D246B}"/>
+    <cellStyle name="Dziesiętny 3" xfId="22" xr:uid="{65FD1213-E52E-455E-B27A-DF9232C9D444}"/>
+    <cellStyle name="Hiperłącze 2 4 2" xfId="24" xr:uid="{E50543CD-ACDA-4B91-A537-4F6A0958FE97}"/>
+    <cellStyle name="Normal - Style1 2 2 3" xfId="20" xr:uid="{15C236B4-1046-4BAC-B3A3-BE57BFDD8DB3}"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 10 15 2" xfId="7" xr:uid="{E5A914AA-3C51-4575-A411-D47338308B02}"/>
+    <cellStyle name="Normal 2 2 14" xfId="18" xr:uid="{0877A59E-A0D7-4863-AAA9-E854628743C2}"/>
     <cellStyle name="Normal 2 3" xfId="14" xr:uid="{9457A865-0F13-4096-A0D8-FA85C3C3B939}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
     <cellStyle name="Normal 39 2 2" xfId="6" xr:uid="{261CD9A1-A4B7-44BA-9569-F7EE94A0D0DC}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
     <cellStyle name="Normal 41" xfId="9" xr:uid="{A894808C-B9C2-4D5A-BCB5-D0CD147EB8F7}"/>
     <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 5 10 2" xfId="19" xr:uid="{0087D7A1-FAC0-4259-AA96-335A76D87602}"/>
+    <cellStyle name="Normal 5 10 2 2" xfId="25" xr:uid="{A8445622-3CD7-4A03-9CF0-248BE6AC3BEF}"/>
     <cellStyle name="Normal 74" xfId="12" xr:uid="{CDD67493-1447-486D-9E87-92CC9E77558A}"/>
     <cellStyle name="Normal 74 2" xfId="15" xr:uid="{3755A256-3A15-4980-AA47-F07685703E44}"/>
     <cellStyle name="Normal 75" xfId="11" xr:uid="{5E4DD1BB-B2A2-4924-8213-6200EAFF2F3D}"/>
     <cellStyle name="Normal 92" xfId="8" xr:uid="{A0176DF6-2011-4869-A9A7-2DF2D063BC75}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10 10" xfId="13" xr:uid="{91DBF07E-6F37-4D49-8806-B701EBCC81B0}"/>
     <cellStyle name="Normalny 10 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
     <cellStyle name="Normalny 43 2" xfId="16" xr:uid="{356A130C-608A-4C2A-8F51-AE9C741758D5}"/>
+    <cellStyle name="Normalny 43 2 2" xfId="21" xr:uid="{9A3D1579-F2B6-46D4-A983-ED5E99AF9B63}"/>
     <cellStyle name="Percent 49" xfId="10" xr:uid="{C9F9DD75-B330-45C9-BF68-4F61E43C37B0}"/>
+    <cellStyle name="Procentowy 5" xfId="23" xr:uid="{EA4B6B25-DC47-410E-9E70-C619E9D6B4D6}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -808,10 +847,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,12 +1203,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5"/>
   <cols>
     <col min="1" max="3" width="4" style="35" customWidth="1"/>
-    <col min="4" max="9" width="14.28515625" style="35" customWidth="1"/>
+    <col min="4" max="9" width="14.26953125" style="35" customWidth="1"/>
     <col min="10" max="12" width="4" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="35"/>
+    <col min="13" max="16384" width="9.1796875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -1303,15 +1338,15 @@
       <c r="A14" s="36"/>
       <c r="B14" s="31"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="D14" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
       <c r="J14" s="25"/>
       <c r="K14" s="27"/>
       <c r="L14" s="36"/>
@@ -1322,9 +1357,9 @@
       <c r="C15" s="26"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
       <c r="J15" s="25"/>
       <c r="K15" s="27"/>
       <c r="L15" s="36"/>
@@ -1349,16 +1384,16 @@
       <c r="A18" s="36"/>
       <c r="B18" s="31"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="D18" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="25"/>
       <c r="K18" s="27"/>
       <c r="L18" s="36"/>
@@ -1369,10 +1404,10 @@
       <c r="C19" s="26"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="25"/>
       <c r="K19" s="27"/>
       <c r="L19" s="36"/>
@@ -1383,10 +1418,10 @@
       <c r="C20" s="26"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="25"/>
       <c r="K20" s="27"/>
       <c r="L20" s="36"/>
@@ -1406,10 +1441,10 @@
       <c r="A22" s="36"/>
       <c r="B22" s="31"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="51"/>
+      <c r="D22" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="50"/>
       <c r="F22" s="21">
         <v>45173</v>
       </c>
@@ -1450,7 +1485,7 @@
       <c r="B25" s="31"/>
       <c r="C25" s="26"/>
       <c r="D25" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="21">
@@ -1487,12 +1522,12 @@
       <c r="A28" s="36"/>
       <c r="B28" s="31"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="51"/>
+      <c r="D28" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="50"/>
       <c r="F28" s="35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="27"/>
@@ -1503,7 +1538,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="26"/>
       <c r="F29" s="35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="27"/>
@@ -1529,12 +1564,12 @@
       <c r="A32" s="36"/>
       <c r="B32" s="31"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="51"/>
+      <c r="D32" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="50"/>
       <c r="F32" s="35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="27"/>
@@ -1545,7 +1580,7 @@
       <c r="B33" s="31"/>
       <c r="C33" s="26"/>
       <c r="F33" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J33" s="25"/>
       <c r="K33" s="27"/>
@@ -1625,7 +1660,7 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
     </row>
-    <row r="48" spans="1:12" ht="59.45" customHeight="1"/>
+    <row r="48" spans="1:12" ht="59.5" customHeight="1"/>
     <row r="49" ht="64.150000000000006" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
@@ -1654,14 +1689,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="3" width="4" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="44.26953125" style="13" customWidth="1"/>
     <col min="7" max="9" width="4" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="13"/>
+    <col min="10" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -1686,7 +1721,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
+    <row r="3" spans="1:9" ht="18.5">
       <c r="A3" s="36"/>
       <c r="B3" s="31"/>
       <c r="C3" s="30"/>
@@ -1697,20 +1732,20 @@
       <c r="H3" s="27"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75">
+    <row r="4" spans="1:9" ht="18.5">
       <c r="A4" s="36"/>
       <c r="B4" s="31"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="D4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="25"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75">
+    <row r="5" spans="1:9" ht="18.5">
       <c r="A5" s="36"/>
       <c r="B5" s="31"/>
       <c r="C5" s="26"/>
@@ -1721,12 +1756,12 @@
       <c r="H5" s="27"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75">
+    <row r="6" spans="1:9" ht="18.5">
       <c r="A6" s="36"/>
       <c r="B6" s="31"/>
       <c r="C6" s="26"/>
       <c r="D6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1734,7 +1769,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75">
+    <row r="7" spans="1:9" ht="18.5">
       <c r="A7" s="36"/>
       <c r="B7" s="31"/>
       <c r="C7" s="26"/>
@@ -1745,7 +1780,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75">
+    <row r="8" spans="1:9" ht="18.5">
       <c r="A8" s="36"/>
       <c r="B8" s="31"/>
       <c r="C8" s="26"/>
@@ -1756,7 +1791,7 @@
       <c r="H8" s="27"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75">
+    <row r="9" spans="1:9" ht="18.5">
       <c r="A9" s="36"/>
       <c r="B9" s="31"/>
       <c r="C9" s="26"/>
@@ -1767,7 +1802,7 @@
       <c r="H9" s="27"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75">
+    <row r="10" spans="1:9" ht="18.5">
       <c r="A10" s="36"/>
       <c r="B10" s="31"/>
       <c r="C10" s="26"/>
@@ -1778,7 +1813,7 @@
       <c r="H10" s="27"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75">
+    <row r="11" spans="1:9" ht="18.5">
       <c r="A11" s="36"/>
       <c r="B11" s="31"/>
       <c r="C11" s="26"/>
@@ -1789,7 +1824,7 @@
       <c r="H11" s="27"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75">
+    <row r="12" spans="1:9" ht="18.5">
       <c r="A12" s="36"/>
       <c r="B12" s="31"/>
       <c r="C12" s="26"/>
@@ -1800,7 +1835,7 @@
       <c r="H12" s="27"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
+    <row r="13" spans="1:9" ht="18.5">
       <c r="A13" s="36"/>
       <c r="B13" s="31"/>
       <c r="C13" s="26"/>
@@ -1811,7 +1846,7 @@
       <c r="H13" s="27"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75">
+    <row r="14" spans="1:9" ht="18.5">
       <c r="A14" s="36"/>
       <c r="B14" s="31"/>
       <c r="C14" s="26"/>
@@ -1822,7 +1857,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75">
+    <row r="15" spans="1:9" ht="18.5">
       <c r="A15" s="36"/>
       <c r="B15" s="31"/>
       <c r="C15" s="26"/>
@@ -1833,7 +1868,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75">
+    <row r="16" spans="1:9" ht="18.5">
       <c r="A16" s="36"/>
       <c r="B16" s="31"/>
       <c r="C16" s="26"/>
@@ -1844,7 +1879,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75">
+    <row r="17" spans="1:9" ht="18.5">
       <c r="A17" s="36"/>
       <c r="B17" s="31"/>
       <c r="C17" s="26"/>
@@ -1855,7 +1890,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75">
+    <row r="18" spans="1:9" ht="18.5">
       <c r="A18" s="36"/>
       <c r="B18" s="31"/>
       <c r="C18" s="26"/>
@@ -1866,7 +1901,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75">
+    <row r="19" spans="1:9" ht="18.5">
       <c r="A19" s="36"/>
       <c r="B19" s="31"/>
       <c r="C19" s="26"/>
@@ -1877,7 +1912,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75">
+    <row r="20" spans="1:9" ht="18.5">
       <c r="A20" s="36"/>
       <c r="B20" s="31"/>
       <c r="C20" s="26"/>
@@ -1888,7 +1923,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75">
+    <row r="21" spans="1:9" ht="18.5">
       <c r="A21" s="36"/>
       <c r="B21" s="31"/>
       <c r="C21" s="26"/>
@@ -1899,7 +1934,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75">
+    <row r="22" spans="1:9" ht="18.5">
       <c r="A22" s="36"/>
       <c r="B22" s="31"/>
       <c r="C22" s="26"/>
@@ -1910,7 +1945,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75">
+    <row r="23" spans="1:9" ht="18.5">
       <c r="A23" s="36"/>
       <c r="B23" s="31"/>
       <c r="C23" s="26"/>
@@ -1921,7 +1956,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75">
+    <row r="24" spans="1:9" ht="18.5">
       <c r="A24" s="36"/>
       <c r="B24" s="31"/>
       <c r="C24" s="26"/>
@@ -1932,7 +1967,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75">
+    <row r="25" spans="1:9" ht="18.5">
       <c r="A25" s="36"/>
       <c r="B25" s="31"/>
       <c r="C25" s="26"/>
@@ -1943,7 +1978,7 @@
       <c r="H25" s="27"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75">
+    <row r="26" spans="1:9" ht="18.5">
       <c r="A26" s="36"/>
       <c r="B26" s="31"/>
       <c r="C26" s="26"/>
@@ -1954,7 +1989,7 @@
       <c r="H26" s="27"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75">
+    <row r="27" spans="1:9" ht="18.5">
       <c r="A27" s="36"/>
       <c r="B27" s="31"/>
       <c r="C27" s="26"/>
@@ -1965,7 +2000,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75">
+    <row r="28" spans="1:9" ht="18.5">
       <c r="A28" s="36"/>
       <c r="B28" s="31"/>
       <c r="C28" s="26"/>
@@ -1976,7 +2011,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75">
+    <row r="29" spans="1:9" ht="18.5">
       <c r="A29" s="36"/>
       <c r="B29" s="31"/>
       <c r="C29" s="26"/>
@@ -1987,7 +2022,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="36"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75">
+    <row r="30" spans="1:9" ht="18.5">
       <c r="A30" s="36"/>
       <c r="B30" s="31"/>
       <c r="C30" s="26"/>
@@ -1998,7 +2033,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75">
+    <row r="31" spans="1:9" ht="18.5">
       <c r="A31" s="36"/>
       <c r="B31" s="31"/>
       <c r="C31" s="26"/>
@@ -2009,7 +2044,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75">
+    <row r="32" spans="1:9" ht="18.5">
       <c r="A32" s="36"/>
       <c r="B32" s="31"/>
       <c r="C32" s="26"/>
@@ -2020,7 +2055,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="36"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75">
+    <row r="33" spans="1:9" ht="18.5">
       <c r="A33" s="36"/>
       <c r="B33" s="31"/>
       <c r="C33" s="26"/>
@@ -2031,7 +2066,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="36"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75">
+    <row r="34" spans="1:9" ht="18.5">
       <c r="A34" s="36"/>
       <c r="B34" s="31"/>
       <c r="C34" s="26"/>
@@ -2042,7 +2077,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75">
+    <row r="35" spans="1:9" ht="18.5">
       <c r="A35" s="36"/>
       <c r="B35" s="31"/>
       <c r="C35" s="26"/>
@@ -2053,7 +2088,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" ht="18.75">
+    <row r="36" spans="1:9" ht="18.5">
       <c r="A36" s="36"/>
       <c r="B36" s="31"/>
       <c r="C36" s="26"/>
@@ -2064,7 +2099,7 @@
       <c r="H36" s="27"/>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75">
+    <row r="37" spans="1:9" ht="18.5">
       <c r="A37" s="36"/>
       <c r="B37" s="31"/>
       <c r="C37" s="26"/>
@@ -2075,7 +2110,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75">
+    <row r="38" spans="1:9" ht="18.5">
       <c r="A38" s="36"/>
       <c r="B38" s="31"/>
       <c r="C38" s="19"/>
@@ -2118,22 +2153,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA62F6D-19A5-4338-B2BD-13A49E0A82F1}">
-  <dimension ref="B3:K17"/>
+  <dimension ref="B3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="37" customWidth="1"/>
-    <col min="4" max="13" width="16.140625" style="37" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="5.54296875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="37" customWidth="1"/>
+    <col min="4" max="13" width="16.1796875" style="37" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" ht="13">
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
@@ -2170,11 +2205,11 @@
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>3</v>
@@ -2196,337 +2231,358 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="43">
+      <c r="C6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="F6" s="42">
         <v>100</v>
       </c>
-      <c r="F6" s="44">
+      <c r="G6" s="42">
         <v>100</v>
       </c>
-      <c r="G6" s="44">
+      <c r="H6" s="42">
         <v>100</v>
       </c>
-      <c r="H6" s="44">
+      <c r="I6" s="42">
         <v>100</v>
       </c>
-      <c r="I6" s="44">
+      <c r="J6" s="42">
         <v>100</v>
       </c>
-      <c r="J6" s="44">
+      <c r="K6" s="42">
         <v>100</v>
       </c>
-      <c r="K6" s="44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="26.25" thickBot="1">
+    </row>
+    <row r="7" spans="2:11" ht="13.5" thickBot="1">
       <c r="B7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+      <c r="D7" s="45">
+        <v>3329</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="46">
-        <v>85.388000000000005</v>
-      </c>
-      <c r="F8" s="46">
-        <v>85.388000000000005</v>
-      </c>
-      <c r="G8" s="46">
-        <v>85.388000000000005</v>
-      </c>
-      <c r="H8" s="46">
-        <v>85.388000000000005</v>
-      </c>
-      <c r="I8" s="46">
-        <v>85.388000000000005</v>
-      </c>
-      <c r="J8" s="46">
-        <v>85.388000000000005</v>
-      </c>
-      <c r="K8" s="46">
-        <v>85.388000000000005</v>
+        <v>270.49200000000002</v>
+      </c>
+      <c r="F8" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="G8" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="H8" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="I8" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="J8" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="K8" s="44">
+        <v>3030.7</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="47">
-        <v>93.212999999999994</v>
-      </c>
-      <c r="F9" s="47">
-        <v>93.212999999999994</v>
-      </c>
-      <c r="G9" s="47">
-        <v>93.212999999999994</v>
-      </c>
-      <c r="H9" s="47">
-        <v>93.212999999999994</v>
-      </c>
-      <c r="I9" s="47">
-        <v>93.212999999999994</v>
-      </c>
-      <c r="J9" s="47">
-        <v>93.212999999999994</v>
-      </c>
-      <c r="K9" s="47">
-        <v>93.212999999999994</v>
+      <c r="C9" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="F9" s="45">
+        <v>3329</v>
+      </c>
+      <c r="G9" s="45">
+        <v>3329</v>
+      </c>
+      <c r="H9" s="45">
+        <v>3329</v>
+      </c>
+      <c r="I9" s="45">
+        <v>3329</v>
+      </c>
+      <c r="J9" s="45">
+        <v>3329</v>
+      </c>
+      <c r="K9" s="45">
+        <v>3329</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="48">
-        <v>79.091999999999999</v>
-      </c>
-      <c r="F10" s="48">
-        <v>79.091999999999999</v>
-      </c>
-      <c r="G10" s="48">
-        <v>79.091999999999999</v>
-      </c>
-      <c r="H10" s="48">
-        <v>79.091999999999999</v>
-      </c>
-      <c r="I10" s="48">
-        <v>79.091999999999999</v>
-      </c>
-      <c r="J10" s="48">
-        <v>79.091999999999999</v>
-      </c>
-      <c r="K10" s="48">
-        <v>79.091999999999999</v>
+      <c r="C10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="F10" s="46">
+        <v>270.49200000000002</v>
+      </c>
+      <c r="G10" s="46">
+        <v>270.49200000000002</v>
+      </c>
+      <c r="H10" s="46">
+        <v>270.49200000000002</v>
+      </c>
+      <c r="I10" s="46">
+        <v>270.49200000000002</v>
+      </c>
+      <c r="J10" s="46">
+        <v>270.49200000000002</v>
+      </c>
+      <c r="K10" s="46">
+        <v>270.49200000000002</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="47">
-        <v>141.44300000000001</v>
-      </c>
-      <c r="F11" s="47">
-        <v>141.44300000000001</v>
-      </c>
-      <c r="G11" s="47">
-        <v>141.44300000000001</v>
-      </c>
-      <c r="H11" s="47">
-        <v>141.44300000000001</v>
-      </c>
-      <c r="I11" s="47">
-        <v>141.44300000000001</v>
-      </c>
-      <c r="J11" s="47">
-        <v>141.44300000000001</v>
-      </c>
-      <c r="K11" s="47">
-        <v>141.44300000000001</v>
+      <c r="C11" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="45">
+        <v>309.964</v>
+      </c>
+      <c r="F11" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="G11" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="H11" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="I11" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="J11" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="K11" s="45">
+        <v>9769.6970000000001</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="48">
-        <v>4.9765253411344545</v>
-      </c>
-      <c r="F12" s="48">
-        <v>4.9765253411344545</v>
-      </c>
-      <c r="G12" s="48">
-        <v>4.9765253411344545</v>
-      </c>
-      <c r="H12" s="48">
-        <v>4.9765253411344545</v>
-      </c>
-      <c r="I12" s="48">
-        <v>4.9765253411344545</v>
-      </c>
-      <c r="J12" s="48">
-        <v>4.9765253411344545</v>
-      </c>
-      <c r="K12" s="48">
-        <v>4.9765253411344545</v>
+      <c r="C12" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="46">
+        <v>218302.79300000001</v>
+      </c>
+      <c r="F12" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="G12" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="H12" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="I12" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="J12" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="K12" s="46">
+        <v>63.523000000000003</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="47">
-        <v>20.306000000000001</v>
-      </c>
-      <c r="F13" s="47">
-        <v>20.306000000000001</v>
-      </c>
-      <c r="G13" s="47">
-        <v>20.306000000000001</v>
-      </c>
-      <c r="H13" s="47">
-        <v>20.306000000000001</v>
-      </c>
-      <c r="I13" s="47">
-        <v>20.306000000000001</v>
-      </c>
-      <c r="J13" s="47">
-        <v>20.306000000000001</v>
-      </c>
-      <c r="K13" s="47">
-        <v>20.306000000000001</v>
+      <c r="C13" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="45">
+        <v>1700</v>
+      </c>
+      <c r="F13" s="45">
+        <v>309.964</v>
+      </c>
+      <c r="G13" s="45">
+        <v>309.964</v>
+      </c>
+      <c r="H13" s="45">
+        <v>309.964</v>
+      </c>
+      <c r="I13" s="45">
+        <v>309.964</v>
+      </c>
+      <c r="J13" s="45">
+        <v>309.964</v>
+      </c>
+      <c r="K13" s="45">
+        <v>309.964</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="48">
-        <v>5170.067</v>
-      </c>
-      <c r="F14" s="48">
-        <v>5170.067</v>
-      </c>
-      <c r="G14" s="48">
-        <v>5170.067</v>
-      </c>
-      <c r="H14" s="48">
-        <v>5170.067</v>
-      </c>
-      <c r="I14" s="48">
-        <v>5170.067</v>
-      </c>
-      <c r="J14" s="48">
-        <v>5170.067</v>
-      </c>
-      <c r="K14" s="48">
-        <v>5170.067</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="47" t="s">
+      <c r="C14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="47">
+        <v>6540.13</v>
+      </c>
+      <c r="F14" s="46">
+        <v>218302.79300000001</v>
+      </c>
+      <c r="G14" s="46">
+        <v>218302.79300000001</v>
+      </c>
+      <c r="H14" s="46">
+        <v>218302.79300000001</v>
+      </c>
+      <c r="I14" s="46">
+        <v>218302.79300000001</v>
+      </c>
+      <c r="J14" s="46">
+        <v>218302.79300000001</v>
+      </c>
+      <c r="K14" s="46">
+        <v>218302.79300000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="13" thickBot="1">
+      <c r="B15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="47">
-        <v>17.32</v>
-      </c>
-      <c r="F15" s="47">
-        <v>17.32</v>
-      </c>
-      <c r="G15" s="47">
-        <v>17.32</v>
-      </c>
-      <c r="H15" s="47">
-        <v>17.32</v>
-      </c>
-      <c r="I15" s="47">
-        <v>17.32</v>
-      </c>
-      <c r="J15" s="47">
-        <v>17.32</v>
-      </c>
-      <c r="K15" s="47">
-        <v>17.32</v>
+      <c r="C15" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="48">
+        <v>5628.7045253411343</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="45">
+        <v>1700</v>
+      </c>
+      <c r="H15" s="45">
+        <v>1700</v>
+      </c>
+      <c r="I15" s="45">
+        <v>1700</v>
+      </c>
+      <c r="J15" s="45">
+        <v>1700</v>
+      </c>
+      <c r="K15" s="45">
+        <v>1700</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="49">
-        <v>16.899000000000001</v>
-      </c>
-      <c r="F16" s="49">
-        <v>16.899000000000001</v>
-      </c>
-      <c r="G16" s="49">
-        <v>16.899000000000001</v>
-      </c>
-      <c r="H16" s="49">
-        <v>16.899000000000001</v>
-      </c>
-      <c r="I16" s="49">
-        <v>16.899000000000001</v>
-      </c>
-      <c r="J16" s="49">
-        <v>16.899000000000001</v>
-      </c>
-      <c r="K16" s="49">
-        <v>16.899000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B17" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="50">
+      <c r="F16" s="47">
+        <v>6540.13</v>
+      </c>
+      <c r="G16" s="47">
+        <v>6540.13</v>
+      </c>
+      <c r="H16" s="47">
+        <v>6540.13</v>
+      </c>
+      <c r="I16" s="47">
+        <v>6540.13</v>
+      </c>
+      <c r="J16" s="47">
+        <v>6540.13</v>
+      </c>
+      <c r="K16" s="47">
+        <v>6540.13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="13" thickBot="1">
+      <c r="F17" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="F17" s="50">
+      <c r="G17" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="G17" s="50">
+      <c r="H17" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="H17" s="50">
+      <c r="I17" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="I17" s="50">
+      <c r="J17" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="J17" s="50">
+      <c r="K17" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="K17" s="50">
-        <v>5628.7045253411343</v>
+    </row>
+    <row r="22" spans="2:11" ht="13">
+      <c r="B22" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" spans="2:11" ht="13">
+      <c r="B23" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="39">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="13.5" thickBot="1">
+      <c r="B24" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="44">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2537,6 +2593,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
@@ -2547,7 +2612,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -2790,16 +2855,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2814,18 +2878,27 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
     <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\Biogaz_GB_AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5258F66C-DB9A-41BC-AEA1-2CF5FD55F45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A1E82-DC52-47BC-84C0-5B4767B4DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>CommName</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>AGR_DEM_CROP_WHEAT</t>
+  </si>
+  <si>
+    <t>AGR_BIOG</t>
+  </si>
+  <si>
+    <t>PJ</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -583,6 +589,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -2153,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA62F6D-19A5-4338-B2BD-13A49E0A82F1}">
-  <dimension ref="B3:K25"/>
+  <dimension ref="B3:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2209,7 +2219,7 @@
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>3</v>
@@ -2230,358 +2240,386 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="2:11" s="53" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B6" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" spans="2:11" s="53" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D8" s="44">
         <v>3030.7</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F8" s="42">
         <v>100</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G8" s="42">
         <v>100</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H8" s="42">
         <v>100</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I8" s="42">
         <v>100</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J8" s="42">
         <v>100</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K8" s="42">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+    <row r="9" spans="2:11" ht="13.5" thickBot="1">
+      <c r="B9" s="45" t="s">
         <v>7</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="45">
-        <v>3329</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="F8" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="G8" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="H8" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="I8" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="J8" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="K8" s="44">
-        <v>3030.7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="45" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-      <c r="F9" s="45">
         <v>3329</v>
       </c>
-      <c r="G9" s="45">
-        <v>3329</v>
-      </c>
-      <c r="H9" s="45">
-        <v>3329</v>
-      </c>
-      <c r="I9" s="45">
-        <v>3329</v>
-      </c>
-      <c r="J9" s="45">
-        <v>3329</v>
-      </c>
-      <c r="K9" s="45">
-        <v>3329</v>
-      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="46">
-        <v>63.523000000000003</v>
-      </c>
-      <c r="F10" s="46">
         <v>270.49200000000002</v>
       </c>
-      <c r="G10" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="H10" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="I10" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="J10" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="K10" s="46">
-        <v>270.49200000000002</v>
+      <c r="F10" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="G10" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="H10" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="I10" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="J10" s="44">
+        <v>3030.7</v>
+      </c>
+      <c r="K10" s="44">
+        <v>3030.7</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="45">
-        <v>309.964</v>
+        <v>9769.6970000000001</v>
       </c>
       <c r="F11" s="45">
-        <v>9769.6970000000001</v>
+        <v>3329</v>
       </c>
       <c r="G11" s="45">
-        <v>9769.6970000000001</v>
+        <v>3329</v>
       </c>
       <c r="H11" s="45">
-        <v>9769.6970000000001</v>
+        <v>3329</v>
       </c>
       <c r="I11" s="45">
-        <v>9769.6970000000001</v>
+        <v>3329</v>
       </c>
       <c r="J11" s="45">
-        <v>9769.6970000000001</v>
+        <v>3329</v>
       </c>
       <c r="K11" s="45">
-        <v>9769.6970000000001</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="46">
-        <v>218302.79300000001</v>
+        <v>63.523000000000003</v>
       </c>
       <c r="F12" s="46">
-        <v>63.523000000000003</v>
+        <v>270.49200000000002</v>
       </c>
       <c r="G12" s="46">
-        <v>63.523000000000003</v>
+        <v>270.49200000000002</v>
       </c>
       <c r="H12" s="46">
-        <v>63.523000000000003</v>
+        <v>270.49200000000002</v>
       </c>
       <c r="I12" s="46">
-        <v>63.523000000000003</v>
+        <v>270.49200000000002</v>
       </c>
       <c r="J12" s="46">
-        <v>63.523000000000003</v>
+        <v>270.49200000000002</v>
       </c>
       <c r="K12" s="46">
-        <v>63.523000000000003</v>
+        <v>270.49200000000002</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="45">
+        <v>309.964</v>
+      </c>
+      <c r="F13" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="G13" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="H13" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="I13" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="J13" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+      <c r="K13" s="45">
+        <v>9769.6970000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="46">
+        <v>218302.79300000001</v>
+      </c>
+      <c r="F14" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="G14" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="H14" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="I14" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="J14" s="46">
+        <v>63.523000000000003</v>
+      </c>
+      <c r="K14" s="46">
+        <v>63.523000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="45">
         <v>1700</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F15" s="45">
         <v>309.964</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G15" s="45">
         <v>309.964</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H15" s="45">
         <v>309.964</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I15" s="45">
         <v>309.964</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J15" s="45">
         <v>309.964</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K15" s="45">
         <v>309.964</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="47" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C16" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D16" s="47">
         <v>6540.13</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F16" s="46">
         <v>218302.79300000001</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G16" s="46">
         <v>218302.79300000001</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H16" s="46">
         <v>218302.79300000001</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I16" s="46">
         <v>218302.79300000001</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J16" s="46">
         <v>218302.79300000001</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K16" s="46">
         <v>218302.79300000001</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="13" thickBot="1">
-      <c r="B15" s="48" t="s">
+    <row r="17" spans="2:11" ht="13" thickBot="1">
+      <c r="B17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D17" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F17" s="45">
         <v>1700</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G17" s="45">
         <v>1700</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H17" s="45">
         <v>1700</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I17" s="45">
         <v>1700</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J17" s="45">
         <v>1700</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K17" s="45">
         <v>1700</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="F16" s="47">
+    <row r="18" spans="2:11">
+      <c r="F18" s="47">
         <v>6540.13</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G18" s="47">
         <v>6540.13</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H18" s="47">
         <v>6540.13</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I18" s="47">
         <v>6540.13</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J18" s="47">
         <v>6540.13</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K18" s="47">
         <v>6540.13</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="13" thickBot="1">
-      <c r="F17" s="48">
+    <row r="19" spans="2:11" ht="13" thickBot="1">
+      <c r="F19" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G19" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H19" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I19" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J19" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K19" s="48">
         <v>5628.7045253411343</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="13">
-      <c r="B22" s="38" t="s">
+    <row r="24" spans="2:11" ht="13">
+      <c r="B24" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="2:11" ht="13">
-      <c r="B23" s="39" t="s">
+      <c r="C24" s="38"/>
+    </row>
+    <row r="25" spans="2:11" ht="13">
+      <c r="B25" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D25" s="39">
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="40" t="s">
+    <row r="26" spans="2:11" ht="13.5" thickBot="1">
+      <c r="B26" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="49" t="s">
+    <row r="27" spans="2:11">
+      <c r="B27" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D27" s="44">
         <v>10</v>
       </c>
     </row>
@@ -2593,26 +2631,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -2855,10 +2873,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2885,20 +2934,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\Biogaz_GB_AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A1E82-DC52-47BC-84C0-5B4767B4DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41029F21-4540-43BC-BE21-677BC1E7A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A41405D6-EBFD-4746-A098-58A1F89E8FDF}</author>
+  </authors>
+  <commentList>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{A41405D6-EBFD-4746-A098-58A1F89E8FDF}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    Nowe!</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
@@ -143,7 +161,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -235,6 +253,12 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -494,7 +518,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -594,6 +618,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Currency 2" xfId="17" xr:uid="{70D1AD71-AA42-4A2C-9630-81F8405D246B}"/>
@@ -857,6 +883,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Maciej Raczyński" id="{D8A8A01A-A8A1-4C61-AF87-BC74A70D62B4}" userId="S::makracz@agh.edu.pl::cb8e1b6e-b599-4de2-beb4-39cd5a5d6ef8" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1205,6 +1237,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J6" dT="2024-01-14T23:26:11.04" personId="{D8A8A01A-A8A1-4C61-AF87-BC74A70D62B4}" id="{A41405D6-EBFD-4746-A098-58A1F89E8FDF}">
+    <text>Nowe!</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77812A59-879F-495C-8D6A-A1B5ADCA0B5F}">
   <dimension ref="A1:O49"/>
@@ -2162,10 +2202,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA62F6D-19A5-4338-B2BD-13A49E0A82F1}">
-  <dimension ref="B3:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA62F6D-19A5-4338-B2BD-13A49E0A82F1}">
+  <dimension ref="B3:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2174,17 +2214,17 @@
     <col min="1" max="1" width="5.54296875" style="37" customWidth="1"/>
     <col min="2" max="2" width="29.453125" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" style="37" customWidth="1"/>
-    <col min="4" max="13" width="16.1796875" style="37" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="37"/>
+    <col min="4" max="12" width="16.1796875" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="13">
+    <row r="3" spans="2:10" ht="13">
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1">
+    <row r="4" spans="2:10" ht="15.75" customHeight="1">
       <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
@@ -2194,26 +2234,26 @@
       <c r="D4" s="39">
         <v>2020</v>
       </c>
+      <c r="E4" s="39">
+        <v>2025</v>
+      </c>
       <c r="F4" s="39">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="G4" s="39">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="H4" s="39">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="I4" s="39">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="J4" s="39">
-        <v>2045</v>
-      </c>
-      <c r="K4" s="39">
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
@@ -2221,6 +2261,9 @@
       <c r="D5" s="40" t="s">
         <v>32</v>
       </c>
+      <c r="E5" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="F5" s="41" t="s">
         <v>3</v>
       </c>
@@ -2236,39 +2279,50 @@
       <c r="J5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="53" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="6" spans="2:10" s="53" customFormat="1" ht="15.75" customHeight="1">
       <c r="B6" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-    </row>
-    <row r="7" spans="2:11" s="53" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D6" s="55">
+        <v>17</v>
+      </c>
+      <c r="E6" s="55">
+        <v>500</v>
+      </c>
+      <c r="F6" s="55">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="55">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="55">
+        <f>(J6-D6)/2</f>
+        <v>1491.5</v>
+      </c>
+      <c r="I6" s="55">
+        <v>2100</v>
+      </c>
+      <c r="J6" s="56">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" s="53" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="44" t="s">
         <v>6</v>
       </c>
@@ -2278,6 +2332,9 @@
       <c r="D8" s="44">
         <v>3030.7</v>
       </c>
+      <c r="E8" s="42">
+        <v>100</v>
+      </c>
       <c r="F8" s="42">
         <v>100</v>
       </c>
@@ -2293,11 +2350,8 @@
       <c r="J8" s="42">
         <v>100</v>
       </c>
-      <c r="K8" s="42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="13.5" thickBot="1">
+    </row>
+    <row r="9" spans="2:10" ht="13.5" thickBot="1">
       <c r="B9" s="45" t="s">
         <v>7</v>
       </c>
@@ -2307,14 +2361,14 @@
       <c r="D9" s="45">
         <v>3329</v>
       </c>
+      <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" spans="2:11">
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="46" t="s">
         <v>8</v>
       </c>
@@ -2324,6 +2378,9 @@
       <c r="D10" s="46">
         <v>270.49200000000002</v>
       </c>
+      <c r="E10" s="44">
+        <v>3030.7</v>
+      </c>
       <c r="F10" s="44">
         <v>3030.7</v>
       </c>
@@ -2339,11 +2396,8 @@
       <c r="J10" s="44">
         <v>3030.7</v>
       </c>
-      <c r="K10" s="44">
-        <v>3030.7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="45" t="s">
         <v>9</v>
       </c>
@@ -2353,6 +2407,9 @@
       <c r="D11" s="45">
         <v>9769.6970000000001</v>
       </c>
+      <c r="E11" s="45">
+        <v>3329</v>
+      </c>
       <c r="F11" s="45">
         <v>3329</v>
       </c>
@@ -2368,11 +2425,8 @@
       <c r="J11" s="45">
         <v>3329</v>
       </c>
-      <c r="K11" s="45">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="46" t="s">
         <v>10</v>
       </c>
@@ -2382,6 +2436,9 @@
       <c r="D12" s="46">
         <v>63.523000000000003</v>
       </c>
+      <c r="E12" s="46">
+        <v>270.49200000000002</v>
+      </c>
       <c r="F12" s="46">
         <v>270.49200000000002</v>
       </c>
@@ -2397,11 +2454,8 @@
       <c r="J12" s="46">
         <v>270.49200000000002</v>
       </c>
-      <c r="K12" s="46">
-        <v>270.49200000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="45" t="s">
         <v>11</v>
       </c>
@@ -2411,6 +2465,9 @@
       <c r="D13" s="45">
         <v>309.964</v>
       </c>
+      <c r="E13" s="45">
+        <v>9769.6970000000001</v>
+      </c>
       <c r="F13" s="45">
         <v>9769.6970000000001</v>
       </c>
@@ -2426,11 +2483,8 @@
       <c r="J13" s="45">
         <v>9769.6970000000001</v>
       </c>
-      <c r="K13" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="46" t="s">
         <v>12</v>
       </c>
@@ -2440,6 +2494,9 @@
       <c r="D14" s="46">
         <v>218302.79300000001</v>
       </c>
+      <c r="E14" s="46">
+        <v>63.523000000000003</v>
+      </c>
       <c r="F14" s="46">
         <v>63.523000000000003</v>
       </c>
@@ -2455,11 +2512,8 @@
       <c r="J14" s="46">
         <v>63.523000000000003</v>
       </c>
-      <c r="K14" s="46">
-        <v>63.523000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="45" t="s">
         <v>13</v>
       </c>
@@ -2469,6 +2523,9 @@
       <c r="D15" s="45">
         <v>1700</v>
       </c>
+      <c r="E15" s="45">
+        <v>309.964</v>
+      </c>
       <c r="F15" s="45">
         <v>309.964</v>
       </c>
@@ -2484,11 +2541,8 @@
       <c r="J15" s="45">
         <v>309.964</v>
       </c>
-      <c r="K15" s="45">
-        <v>309.964</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="47" t="s">
         <v>14</v>
       </c>
@@ -2498,6 +2552,9 @@
       <c r="D16" s="47">
         <v>6540.13</v>
       </c>
+      <c r="E16" s="46">
+        <v>218302.79300000001</v>
+      </c>
       <c r="F16" s="46">
         <v>218302.79300000001</v>
       </c>
@@ -2513,11 +2570,8 @@
       <c r="J16" s="46">
         <v>218302.79300000001</v>
       </c>
-      <c r="K16" s="46">
-        <v>218302.79300000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="13" thickBot="1">
+    </row>
+    <row r="17" spans="2:10" ht="13" thickBot="1">
       <c r="B17" s="48" t="s">
         <v>15</v>
       </c>
@@ -2527,6 +2581,9 @@
       <c r="D17" s="48">
         <v>5628.7045253411343</v>
       </c>
+      <c r="E17" s="45">
+        <v>1700</v>
+      </c>
       <c r="F17" s="45">
         <v>1700</v>
       </c>
@@ -2542,11 +2599,11 @@
       <c r="J17" s="45">
         <v>1700</v>
       </c>
-      <c r="K17" s="45">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+    </row>
+    <row r="18" spans="2:10">
+      <c r="E18" s="47">
+        <v>6540.13</v>
+      </c>
       <c r="F18" s="47">
         <v>6540.13</v>
       </c>
@@ -2562,11 +2619,11 @@
       <c r="J18" s="47">
         <v>6540.13</v>
       </c>
-      <c r="K18" s="47">
-        <v>6540.13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="13" thickBot="1">
+    </row>
+    <row r="19" spans="2:10" ht="13" thickBot="1">
+      <c r="E19" s="48">
+        <v>5628.7045253411343</v>
+      </c>
       <c r="F19" s="48">
         <v>5628.7045253411343</v>
       </c>
@@ -2582,17 +2639,14 @@
       <c r="J19" s="48">
         <v>5628.7045253411343</v>
       </c>
-      <c r="K19" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="13">
+    </row>
+    <row r="24" spans="2:10" ht="13">
       <c r="B24" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="38"/>
     </row>
-    <row r="25" spans="2:11" ht="13">
+    <row r="25" spans="2:10" ht="13">
       <c r="B25" s="39" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2657,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="13.5" thickBot="1">
+    <row r="26" spans="2:10" ht="13.5" thickBot="1">
       <c r="B26" s="40" t="s">
         <v>4</v>
       </c>
@@ -2612,7 +2666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:10">
       <c r="B27" s="49" t="s">
         <v>30</v>
       </c>
@@ -2627,6 +2681,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\Biogaz_GB_AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41029F21-4540-43BC-BE21-677BC1E7A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CC1FE-3A55-4CFD-93CC-52FA2CC33576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>CommName</t>
   </si>
@@ -62,43 +62,10 @@
     <t>~FI_T:DEMAND</t>
   </si>
   <si>
-    <t>IPI</t>
-  </si>
-  <si>
     <t>\I:</t>
   </si>
   <si>
     <t>PL</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_CAT_DAIRY</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_CAT_NON-DAIRY</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_SHEEP</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_SWINE</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_GOAT</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_HORSE</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_POULTRY</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_RABBIT</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_FUR</t>
-  </si>
-  <si>
-    <t>AGR_DEM_LIV_INDIRECT</t>
   </si>
   <si>
     <t>Typ dokumentu</t>
@@ -140,16 +107,10 @@
     <t>Wprowadzenie topologii popytów i wartości popytów</t>
   </si>
   <si>
-    <t>kanimals</t>
-  </si>
-  <si>
-    <t>AGR_DEM_CROP_WHEAT</t>
-  </si>
-  <si>
     <t>AGR_BIOG</t>
   </si>
   <si>
-    <t>PJ</t>
+    <t>mln m3</t>
   </si>
 </sst>
 </file>
@@ -161,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -260,8 +221,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,32 +257,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -348,49 +289,9 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,49 +419,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="15" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="11" xfId="16" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="13" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="16" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
@@ -570,16 +471,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="16" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="16" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="16" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="16" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
@@ -592,19 +493,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -618,8 +506,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Currency 2" xfId="17" xr:uid="{70D1AD71-AA42-4A2C-9630-81F8405D246B}"/>
@@ -1388,15 +1276,15 @@
       <c r="A14" s="36"/>
       <c r="B14" s="31"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="J14" s="25"/>
       <c r="K14" s="27"/>
       <c r="L14" s="36"/>
@@ -1407,9 +1295,9 @@
       <c r="C15" s="26"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
       <c r="J15" s="25"/>
       <c r="K15" s="27"/>
       <c r="L15" s="36"/>
@@ -1434,16 +1322,16 @@
       <c r="A18" s="36"/>
       <c r="B18" s="31"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="D18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="25"/>
       <c r="K18" s="27"/>
       <c r="L18" s="36"/>
@@ -1454,10 +1342,10 @@
       <c r="C19" s="26"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="J19" s="25"/>
       <c r="K19" s="27"/>
       <c r="L19" s="36"/>
@@ -1468,10 +1356,10 @@
       <c r="C20" s="26"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="25"/>
       <c r="K20" s="27"/>
       <c r="L20" s="36"/>
@@ -1491,10 +1379,10 @@
       <c r="A22" s="36"/>
       <c r="B22" s="31"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="50"/>
+      <c r="D22" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="41"/>
       <c r="F22" s="21">
         <v>45173</v>
       </c>
@@ -1535,7 +1423,7 @@
       <c r="B25" s="31"/>
       <c r="C25" s="26"/>
       <c r="D25" s="23" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="21">
@@ -1572,12 +1460,12 @@
       <c r="A28" s="36"/>
       <c r="B28" s="31"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="50"/>
+      <c r="D28" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="41"/>
       <c r="F28" s="35" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="27"/>
@@ -1588,7 +1476,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="26"/>
       <c r="F29" s="35" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="27"/>
@@ -1614,12 +1502,12 @@
       <c r="A32" s="36"/>
       <c r="B32" s="31"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="50"/>
+      <c r="D32" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="41"/>
       <c r="F32" s="35" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="27"/>
@@ -1630,7 +1518,7 @@
       <c r="B33" s="31"/>
       <c r="C33" s="26"/>
       <c r="F33" s="20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J33" s="25"/>
       <c r="K33" s="27"/>
@@ -1786,11 +1674,11 @@
       <c r="A4" s="36"/>
       <c r="B4" s="31"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="D4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="25"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
@@ -1811,7 +1699,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="26"/>
       <c r="D6" s="11" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -2203,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA62F6D-19A5-4338-B2BD-13A49E0A82F1}">
-  <dimension ref="B3:J27"/>
+  <dimension ref="A3:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2218,13 +2106,13 @@
     <col min="13" max="16384" width="9.1796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="13">
+    <row r="3" spans="1:10" ht="13">
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
@@ -2253,431 +2141,79 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="53" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="55">
+        <v>19</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="46">
         <v>17</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="46">
         <v>500</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="46">
         <v>1000</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="46">
         <v>1200</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="46">
         <f>(J6-D6)/2</f>
         <v>1491.5</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="46">
         <v>2100</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="47">
         <f>3000</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="2:10" s="53" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="E8" s="42">
-        <v>100</v>
-      </c>
-      <c r="F8" s="42">
-        <v>100</v>
-      </c>
-      <c r="G8" s="42">
-        <v>100</v>
-      </c>
-      <c r="H8" s="42">
-        <v>100</v>
-      </c>
-      <c r="I8" s="42">
-        <v>100</v>
-      </c>
-      <c r="J8" s="42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B9" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="45">
-        <v>3329</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="E10" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="F10" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="G10" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="H10" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="I10" s="44">
-        <v>3030.7</v>
-      </c>
-      <c r="J10" s="44">
-        <v>3030.7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-      <c r="E11" s="45">
-        <v>3329</v>
-      </c>
-      <c r="F11" s="45">
-        <v>3329</v>
-      </c>
-      <c r="G11" s="45">
-        <v>3329</v>
-      </c>
-      <c r="H11" s="45">
-        <v>3329</v>
-      </c>
-      <c r="I11" s="45">
-        <v>3329</v>
-      </c>
-      <c r="J11" s="45">
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="46">
-        <v>63.523000000000003</v>
-      </c>
-      <c r="E12" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="F12" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="G12" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="H12" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="I12" s="46">
-        <v>270.49200000000002</v>
-      </c>
-      <c r="J12" s="46">
-        <v>270.49200000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="45">
-        <v>309.964</v>
-      </c>
-      <c r="E13" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-      <c r="F13" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-      <c r="G13" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-      <c r="H13" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-      <c r="I13" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-      <c r="J13" s="45">
-        <v>9769.6970000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="46">
-        <v>218302.79300000001</v>
-      </c>
-      <c r="E14" s="46">
-        <v>63.523000000000003</v>
-      </c>
-      <c r="F14" s="46">
-        <v>63.523000000000003</v>
-      </c>
-      <c r="G14" s="46">
-        <v>63.523000000000003</v>
-      </c>
-      <c r="H14" s="46">
-        <v>63.523000000000003</v>
-      </c>
-      <c r="I14" s="46">
-        <v>63.523000000000003</v>
-      </c>
-      <c r="J14" s="46">
-        <v>63.523000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="45">
-        <v>1700</v>
-      </c>
-      <c r="E15" s="45">
-        <v>309.964</v>
-      </c>
-      <c r="F15" s="45">
-        <v>309.964</v>
-      </c>
-      <c r="G15" s="45">
-        <v>309.964</v>
-      </c>
-      <c r="H15" s="45">
-        <v>309.964</v>
-      </c>
-      <c r="I15" s="45">
-        <v>309.964</v>
-      </c>
-      <c r="J15" s="45">
-        <v>309.964</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="47">
-        <v>6540.13</v>
-      </c>
-      <c r="E16" s="46">
-        <v>218302.79300000001</v>
-      </c>
-      <c r="F16" s="46">
-        <v>218302.79300000001</v>
-      </c>
-      <c r="G16" s="46">
-        <v>218302.79300000001</v>
-      </c>
-      <c r="H16" s="46">
-        <v>218302.79300000001</v>
-      </c>
-      <c r="I16" s="46">
-        <v>218302.79300000001</v>
-      </c>
-      <c r="J16" s="46">
-        <v>218302.79300000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="13" thickBot="1">
-      <c r="B17" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-      <c r="E17" s="45">
-        <v>1700</v>
-      </c>
-      <c r="F17" s="45">
-        <v>1700</v>
-      </c>
-      <c r="G17" s="45">
-        <v>1700</v>
-      </c>
-      <c r="H17" s="45">
-        <v>1700</v>
-      </c>
-      <c r="I17" s="45">
-        <v>1700</v>
-      </c>
-      <c r="J17" s="45">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="E18" s="47">
-        <v>6540.13</v>
-      </c>
-      <c r="F18" s="47">
-        <v>6540.13</v>
-      </c>
-      <c r="G18" s="47">
-        <v>6540.13</v>
-      </c>
-      <c r="H18" s="47">
-        <v>6540.13</v>
-      </c>
-      <c r="I18" s="47">
-        <v>6540.13</v>
-      </c>
-      <c r="J18" s="47">
-        <v>6540.13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="13" thickBot="1">
-      <c r="E19" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-      <c r="F19" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-      <c r="G19" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-      <c r="H19" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-      <c r="I19" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-      <c r="J19" s="48">
-        <v>5628.7045253411343</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="13">
-      <c r="B24" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="25" spans="2:10" ht="13">
-      <c r="B25" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="39">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B26" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="44">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="7" spans="1:10" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\Biogaz_GB_AW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69CC1FE-3A55-4CFD-93CC-52FA2CC33576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE4515-886B-4649-84FD-92C91C4A3DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A41405D6-EBFD-4746-A098-58A1F89E8FDF}</author>
+    <author>tc={A4CC1084-A67C-4847-ADC5-9EC66BBFA9A1}</author>
   </authors>
   <commentList>
-    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{A41405D6-EBFD-4746-A098-58A1F89E8FDF}">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{A4CC1084-A67C-4847-ADC5-9EC66BBFA9A1}">
       <text>
         <t>[Komentarz podzielony na wątki]
 Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
@@ -419,7 +419,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="16" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -493,6 +493,11 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -502,12 +507,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Currency 2" xfId="17" xr:uid="{70D1AD71-AA42-4A2C-9630-81F8405D246B}"/>
@@ -1127,7 +1126,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J6" dT="2024-01-14T23:26:11.04" personId="{D8A8A01A-A8A1-4C61-AF87-BC74A70D62B4}" id="{A41405D6-EBFD-4746-A098-58A1F89E8FDF}">
+  <threadedComment ref="J6" dT="2024-01-14T23:26:11.04" personId="{D8A8A01A-A8A1-4C61-AF87-BC74A70D62B4}" id="{A4CC1084-A67C-4847-ADC5-9EC66BBFA9A1}">
     <text>Nowe!</text>
   </threadedComment>
 </ThreadedComments>
@@ -1276,15 +1275,15 @@
       <c r="A14" s="36"/>
       <c r="B14" s="31"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="J14" s="25"/>
       <c r="K14" s="27"/>
       <c r="L14" s="36"/>
@@ -1295,9 +1294,9 @@
       <c r="C15" s="26"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
       <c r="J15" s="25"/>
       <c r="K15" s="27"/>
       <c r="L15" s="36"/>
@@ -1322,16 +1321,16 @@
       <c r="A18" s="36"/>
       <c r="B18" s="31"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42" t="s">
+      <c r="E18" s="44"/>
+      <c r="F18" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="25"/>
       <c r="K18" s="27"/>
       <c r="L18" s="36"/>
@@ -1342,10 +1341,10 @@
       <c r="C19" s="26"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="25"/>
       <c r="K19" s="27"/>
       <c r="L19" s="36"/>
@@ -1356,10 +1355,10 @@
       <c r="C20" s="26"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="25"/>
       <c r="K20" s="27"/>
       <c r="L20" s="36"/>
@@ -1379,10 +1378,10 @@
       <c r="A22" s="36"/>
       <c r="B22" s="31"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="21">
         <v>45173</v>
       </c>
@@ -1460,10 +1459,10 @@
       <c r="A28" s="36"/>
       <c r="B28" s="31"/>
       <c r="C28" s="26"/>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="41"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="35" t="s">
         <v>11</v>
       </c>
@@ -1502,10 +1501,10 @@
       <c r="A32" s="36"/>
       <c r="B32" s="31"/>
       <c r="C32" s="26"/>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="35" t="s">
         <v>11</v>
       </c>
@@ -1674,11 +1673,11 @@
       <c r="A4" s="36"/>
       <c r="B4" s="31"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="25"/>
       <c r="H4" s="27"/>
       <c r="I4" s="36"/>
@@ -2091,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA62F6D-19A5-4338-B2BD-13A49E0A82F1}">
-  <dimension ref="A3:J8"/>
+  <dimension ref="B3:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2106,13 +2105,13 @@
     <col min="13" max="16384" width="9.1796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="13">
+    <row r="3" spans="2:10" ht="13">
       <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="38"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="2:10" ht="15.75" customHeight="1">
       <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="40" t="s">
         <v>3</v>
       </c>
@@ -2168,50 +2167,42 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="45" t="s">
+    <row r="6" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="46">
-        <v>17</v>
-      </c>
-      <c r="E6" s="46">
-        <v>500</v>
-      </c>
-      <c r="F6" s="46">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="46">
-        <v>1200</v>
-      </c>
-      <c r="H6" s="46">
+      <c r="D6" s="42">
+        <v>374</v>
+      </c>
+      <c r="E6" s="42">
+        <f>3.33*D6</f>
+        <v>1245.42</v>
+      </c>
+      <c r="F6" s="42">
+        <f>6.66*D6</f>
+        <v>2490.84</v>
+      </c>
+      <c r="G6" s="42">
         <f>(J6-D6)/2</f>
-        <v>1491.5</v>
-      </c>
-      <c r="I6" s="46">
-        <v>2100</v>
-      </c>
-      <c r="J6" s="47">
-        <f>3000</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+        <v>3813</v>
+      </c>
+      <c r="H6" s="42">
+        <f>G6+1395</f>
+        <v>5208</v>
+      </c>
+      <c r="I6" s="42">
+        <f>1395+H6</f>
+        <v>6603</v>
+      </c>
+      <c r="J6" s="43">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2222,6 +2213,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -2464,41 +2475,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2525,9 +2505,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\Biogaz_GB_AW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE4515-886B-4649-84FD-92C91C4A3DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491FA33-9A8C-45E1-A2B7-266E8939F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,12 +214,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2204,7 +2198,7 @@
     <row r="7" spans="2:10" ht="15.75" customHeight="1"/>
     <row r="8" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2213,26 +2207,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -2475,10 +2449,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2505,20 +2510,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491FA33-9A8C-45E1-A2B7-266E8939F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B98A22-3650-4685-B049-6B965582155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2087,7 +2087,7 @@
   <dimension ref="B3:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2172,27 +2172,22 @@
         <v>374</v>
       </c>
       <c r="E6" s="42">
-        <f>3.33*D6</f>
         <v>1245.42</v>
       </c>
       <c r="F6" s="42">
-        <f>6.66*D6</f>
         <v>2490.84</v>
       </c>
       <c r="G6" s="42">
-        <f>(J6-D6)/2</f>
         <v>3813</v>
       </c>
       <c r="H6" s="42">
-        <f>G6+1395</f>
         <v>5208</v>
       </c>
       <c r="I6" s="42">
-        <f>1395+H6</f>
         <v>6603</v>
       </c>
       <c r="J6" s="43">
-        <v>8000</v>
+        <v>13333</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1"/>
@@ -2207,6 +2202,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -2449,41 +2464,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2510,9 +2494,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/VT_Model_DMD.xlsx
+++ b/VT_Model_DMD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\Downloads\xd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B98A22-3650-4685-B049-6B965582155D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD1F349-E6C6-4067-8AE5-CB2D1F6D087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2087,7 +2087,7 @@
   <dimension ref="B3:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -2172,7 +2172,7 @@
         <v>374</v>
       </c>
       <c r="E6" s="42">
-        <v>1245.42</v>
+        <v>748</v>
       </c>
       <c r="F6" s="42">
         <v>2490.84</v>
@@ -2202,26 +2202,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
@@ -2464,10 +2444,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2494,20 +2505,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5407C07-DEA9-42DC-ACA8-8B439A10AF90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>